--- a/variables.xlsx
+++ b/variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruchi\Documents\Yale\Courses\S7\S&amp;DS 425\Climate Change\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57483091-8DC7-4CDB-BC7E-2CA1DBDA640E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E18103-B102-4A30-912D-54D758613759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -710,14 +710,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="89" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.81640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1453,7 +1453,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="A60" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -1467,6 +1467,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="2"/>
       <c r="B61" s="1" t="s">
         <v>97</v>
       </c>
@@ -1478,6 +1479,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="2"/>
       <c r="B62" s="1" t="s">
         <v>98</v>
       </c>
@@ -1489,6 +1491,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="2"/>
       <c r="B63" s="1" t="s">
         <v>99</v>
       </c>
@@ -1500,6 +1503,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="2"/>
       <c r="B64" s="1" t="s">
         <v>100</v>
       </c>
@@ -1511,7 +1515,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A60:A64"/>
     <mergeCell ref="A53:A57"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="A39:A46"/>
